--- a/assets/input_template.xlsx
+++ b/assets/input_template.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t>材料类型</t>
   </si>
   <si>
     <t>规格</t>
@@ -31,6 +34,9 @@
   </si>
   <si>
     <t>檩条1</t>
+  </si>
+  <si>
+    <t>锌铝镁</t>
   </si>
   <si>
     <t>C100*35*10*2.5*9775</t>
@@ -1042,57 +1048,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="8.55" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="27" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>6400</v>
       </c>
     </row>

--- a/assets/input_template.xlsx
+++ b/assets/input_template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>名称</t>
   </si>
@@ -48,7 +48,25 @@
     <t>檩条2</t>
   </si>
   <si>
-    <t>C100*35*10*2.5*7444</t>
+    <t>C100*30*10*2.5*7444</t>
+  </si>
+  <si>
+    <t>檩条3</t>
+  </si>
+  <si>
+    <t>C100*28*10*2.5*9775</t>
+  </si>
+  <si>
+    <t>檩条4</t>
+  </si>
+  <si>
+    <t>C100*27*10*2.5*7444</t>
+  </si>
+  <si>
+    <t>檩条5</t>
+  </si>
+  <si>
+    <t>C100*24*10*2.5*9775</t>
   </si>
 </sst>
 </file>
@@ -1047,14 +1065,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="8.55" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
@@ -1109,6 +1127,57 @@
         <v>8</v>
       </c>
       <c r="E3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>6400</v>
       </c>
     </row>
@@ -1121,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1138,7 +1207,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
